--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Psen1-Notch1.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Psen1-Notch1.xlsx
@@ -537,52 +537,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>7.90168586524248</v>
+        <v>9.675848</v>
       </c>
       <c r="H2">
-        <v>7.90168586524248</v>
+        <v>29.027544</v>
       </c>
       <c r="I2">
-        <v>0.05037330570994558</v>
+        <v>0.05899100603075658</v>
       </c>
       <c r="J2">
-        <v>0.05037330570994558</v>
+        <v>0.05899100603075658</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>36.7867647594208</v>
+        <v>45.13108133333333</v>
       </c>
       <c r="N2">
-        <v>36.7867647594208</v>
+        <v>135.393244</v>
       </c>
       <c r="O2">
-        <v>0.2952017182697281</v>
+        <v>0.3170330137447531</v>
       </c>
       <c r="P2">
-        <v>0.2952017182697281</v>
+        <v>0.317033013744753</v>
       </c>
       <c r="Q2">
-        <v>290.6774591275155</v>
+        <v>436.6814830569707</v>
       </c>
       <c r="R2">
-        <v>290.6774591275155</v>
+        <v>3930.133347512736</v>
       </c>
       <c r="S2">
-        <v>0.01487028640050224</v>
+        <v>0.01870209642576566</v>
       </c>
       <c r="T2">
-        <v>0.01487028640050224</v>
+        <v>0.01870209642576566</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,52 +599,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>7.90168586524248</v>
+        <v>9.675848</v>
       </c>
       <c r="H3">
-        <v>7.90168586524248</v>
+        <v>29.027544</v>
       </c>
       <c r="I3">
-        <v>0.05037330570994558</v>
+        <v>0.05899100603075658</v>
       </c>
       <c r="J3">
-        <v>0.05037330570994558</v>
+        <v>0.05899100603075658</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>5.71373915320556</v>
+        <v>5.717455666666666</v>
       </c>
       <c r="N3">
-        <v>5.71373915320556</v>
+        <v>17.152367</v>
       </c>
       <c r="O3">
-        <v>0.04585088215291751</v>
+        <v>0.04016350035062346</v>
       </c>
       <c r="P3">
-        <v>0.04585088215291751</v>
+        <v>0.04016350035062346</v>
       </c>
       <c r="Q3">
-        <v>45.14817190456691</v>
+        <v>55.32123197740533</v>
       </c>
       <c r="R3">
-        <v>45.14817190456691</v>
+        <v>497.8910877966479</v>
       </c>
       <c r="S3">
-        <v>0.002309660503759602</v>
+        <v>0.002369285291399922</v>
       </c>
       <c r="T3">
-        <v>0.002309660503759602</v>
+        <v>0.002369285291399922</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,52 +661,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>7.90168586524248</v>
+        <v>9.675848</v>
       </c>
       <c r="H4">
-        <v>7.90168586524248</v>
+        <v>29.027544</v>
       </c>
       <c r="I4">
-        <v>0.05037330570994558</v>
+        <v>0.05899100603075658</v>
       </c>
       <c r="J4">
-        <v>0.05037330570994558</v>
+        <v>0.05899100603075658</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>11.9566919690693</v>
+        <v>14.17143466666666</v>
       </c>
       <c r="N4">
-        <v>11.9566919690693</v>
+        <v>42.514304</v>
       </c>
       <c r="O4">
-        <v>0.09594853032535849</v>
+        <v>0.09955029901182223</v>
       </c>
       <c r="P4">
-        <v>0.09594853032535849</v>
+        <v>0.09955029901182223</v>
       </c>
       <c r="Q4">
-        <v>94.47802392705317</v>
+        <v>137.1206477765973</v>
       </c>
       <c r="R4">
-        <v>94.47802392705317</v>
+        <v>1234.085829989376</v>
       </c>
       <c r="S4">
-        <v>0.004833244650499268</v>
+        <v>0.005872572289370027</v>
       </c>
       <c r="T4">
-        <v>0.004833244650499268</v>
+        <v>0.005872572289370027</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,52 +723,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>7.90168586524248</v>
+        <v>9.675848</v>
       </c>
       <c r="H5">
-        <v>7.90168586524248</v>
+        <v>29.027544</v>
       </c>
       <c r="I5">
-        <v>0.05037330570994558</v>
+        <v>0.05899100603075658</v>
       </c>
       <c r="J5">
-        <v>0.05037330570994558</v>
+        <v>0.05899100603075658</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>15.6185303425051</v>
+        <v>15.94503</v>
       </c>
       <c r="N5">
-        <v>15.6185303425051</v>
+        <v>47.83509</v>
       </c>
       <c r="O5">
-        <v>0.1253335819039277</v>
+        <v>0.1120093019224172</v>
       </c>
       <c r="P5">
-        <v>0.1253335819039277</v>
+        <v>0.1120093019224172</v>
       </c>
       <c r="Q5">
-        <v>123.4127204432333</v>
+        <v>154.28168663544</v>
       </c>
       <c r="R5">
-        <v>123.4127204432333</v>
+        <v>1388.53517971896</v>
       </c>
       <c r="S5">
-        <v>0.006313466836969055</v>
+        <v>0.006607541405206147</v>
       </c>
       <c r="T5">
-        <v>0.006313466836969055</v>
+        <v>0.006607541405206146</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,52 +785,52 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>7.90168586524248</v>
+        <v>9.675848</v>
       </c>
       <c r="H6">
-        <v>7.90168586524248</v>
+        <v>29.027544</v>
       </c>
       <c r="I6">
-        <v>0.05037330570994558</v>
+        <v>0.05899100603075658</v>
       </c>
       <c r="J6">
-        <v>0.05037330570994558</v>
+        <v>0.05899100603075658</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>26.5908508520181</v>
+        <v>28.53112133333333</v>
       </c>
       <c r="N6">
-        <v>26.5908508520181</v>
+        <v>85.59336400000001</v>
       </c>
       <c r="O6">
-        <v>0.2133828542168707</v>
+        <v>0.2004230147958612</v>
       </c>
       <c r="P6">
-        <v>0.2133828542168707</v>
+        <v>0.2004230147958612</v>
       </c>
       <c r="Q6">
-        <v>210.1125503221624</v>
+        <v>276.0627932908907</v>
       </c>
       <c r="R6">
-        <v>210.1125503221624</v>
+        <v>2484.565139618016</v>
       </c>
       <c r="S6">
-        <v>0.01074879974872718</v>
+        <v>0.01182315527452507</v>
       </c>
       <c r="T6">
-        <v>0.01074879974872718</v>
+        <v>0.01182315527452507</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,52 +847,52 @@
         <v>25</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>7.90168586524248</v>
+        <v>9.675848</v>
       </c>
       <c r="H7">
-        <v>7.90168586524248</v>
+        <v>29.027544</v>
       </c>
       <c r="I7">
-        <v>0.05037330570994558</v>
+        <v>0.05899100603075658</v>
       </c>
       <c r="J7">
-        <v>0.05037330570994558</v>
+        <v>0.05899100603075658</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>27.9491093602959</v>
+        <v>32.85839333333333</v>
       </c>
       <c r="N7">
-        <v>27.9491093602959</v>
+        <v>98.57517999999999</v>
       </c>
       <c r="O7">
-        <v>0.2242824331311975</v>
+        <v>0.2308208701745229</v>
       </c>
       <c r="P7">
-        <v>0.2242824331311975</v>
+        <v>0.2308208701745229</v>
       </c>
       <c r="Q7">
-        <v>220.8450823783664</v>
+        <v>317.9328194175467</v>
       </c>
       <c r="R7">
-        <v>220.8450823783664</v>
+        <v>2861.395374757919</v>
       </c>
       <c r="S7">
-        <v>0.01129784756948824</v>
+        <v>0.01361635534448976</v>
       </c>
       <c r="T7">
-        <v>0.01129784756948824</v>
+        <v>0.01361635534448976</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,52 +909,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>29.6834392467706</v>
+        <v>29.79141</v>
       </c>
       <c r="H8">
-        <v>29.6834392467706</v>
+        <v>89.37423000000001</v>
       </c>
       <c r="I8">
-        <v>0.189232144279161</v>
+        <v>0.1816301007389473</v>
       </c>
       <c r="J8">
-        <v>0.189232144279161</v>
+        <v>0.1816301007389474</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>36.7867647594208</v>
+        <v>45.13108133333333</v>
       </c>
       <c r="N8">
-        <v>36.7867647594208</v>
+        <v>135.393244</v>
       </c>
       <c r="O8">
-        <v>0.2952017182697281</v>
+        <v>0.3170330137447531</v>
       </c>
       <c r="P8">
-        <v>0.2952017182697281</v>
+        <v>0.317033013744753</v>
       </c>
       <c r="Q8">
-        <v>1091.957696821509</v>
+        <v>1344.51854774468</v>
       </c>
       <c r="R8">
-        <v>1091.957696821509</v>
+        <v>12100.66692970212</v>
       </c>
       <c r="S8">
-        <v>0.05586165414307342</v>
+        <v>0.05758273822403157</v>
       </c>
       <c r="T8">
-        <v>0.05586165414307342</v>
+        <v>0.05758273822403157</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,52 +971,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>29.6834392467706</v>
+        <v>29.79141</v>
       </c>
       <c r="H9">
-        <v>29.6834392467706</v>
+        <v>89.37423000000001</v>
       </c>
       <c r="I9">
-        <v>0.189232144279161</v>
+        <v>0.1816301007389473</v>
       </c>
       <c r="J9">
-        <v>0.189232144279161</v>
+        <v>0.1816301007389474</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>5.71373915320556</v>
+        <v>5.717455666666666</v>
       </c>
       <c r="N9">
-        <v>5.71373915320556</v>
+        <v>17.152367</v>
       </c>
       <c r="O9">
-        <v>0.04585088215291751</v>
+        <v>0.04016350035062346</v>
       </c>
       <c r="P9">
-        <v>0.04585088215291751</v>
+        <v>0.04016350035062346</v>
       </c>
       <c r="Q9">
-        <v>169.6034290260717</v>
+        <v>170.33106592249</v>
       </c>
       <c r="R9">
-        <v>169.6034290260717</v>
+        <v>1532.97959330241</v>
       </c>
       <c r="S9">
-        <v>0.008676460746887696</v>
+        <v>0.007294900614712486</v>
       </c>
       <c r="T9">
-        <v>0.008676460746887696</v>
+        <v>0.007294900614712487</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,52 +1033,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>29.6834392467706</v>
+        <v>29.79141</v>
       </c>
       <c r="H10">
-        <v>29.6834392467706</v>
+        <v>89.37423000000001</v>
       </c>
       <c r="I10">
-        <v>0.189232144279161</v>
+        <v>0.1816301007389473</v>
       </c>
       <c r="J10">
-        <v>0.189232144279161</v>
+        <v>0.1816301007389474</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>11.9566919690693</v>
+        <v>14.17143466666666</v>
       </c>
       <c r="N10">
-        <v>11.9566919690693</v>
+        <v>42.514304</v>
       </c>
       <c r="O10">
-        <v>0.09594853032535849</v>
+        <v>0.09955029901182223</v>
       </c>
       <c r="P10">
-        <v>0.09594853032535849</v>
+        <v>0.09955029901182223</v>
       </c>
       <c r="Q10">
-        <v>354.9157396562185</v>
+        <v>422.18702044288</v>
       </c>
       <c r="R10">
-        <v>354.9157396562185</v>
+        <v>3799.68318398592</v>
       </c>
       <c r="S10">
-        <v>0.01815654613390169</v>
+        <v>0.0180813308381096</v>
       </c>
       <c r="T10">
-        <v>0.01815654613390169</v>
+        <v>0.01808133083810961</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,52 +1095,52 @@
         <v>23</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>29.6834392467706</v>
+        <v>29.79141</v>
       </c>
       <c r="H11">
-        <v>29.6834392467706</v>
+        <v>89.37423000000001</v>
       </c>
       <c r="I11">
-        <v>0.189232144279161</v>
+        <v>0.1816301007389473</v>
       </c>
       <c r="J11">
-        <v>0.189232144279161</v>
+        <v>0.1816301007389474</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>15.6185303425051</v>
+        <v>15.94503</v>
       </c>
       <c r="N11">
-        <v>15.6185303425051</v>
+        <v>47.83509</v>
       </c>
       <c r="O11">
-        <v>0.1253335819039277</v>
+        <v>0.1120093019224172</v>
       </c>
       <c r="P11">
-        <v>0.1253335819039277</v>
+        <v>0.1120093019224172</v>
       </c>
       <c r="Q11">
-        <v>463.6116965455934</v>
+        <v>475.0249261923001</v>
       </c>
       <c r="R11">
-        <v>463.6116965455934</v>
+        <v>4275.224335730701</v>
       </c>
       <c r="S11">
-        <v>0.0237171424538681</v>
+        <v>0.0203442607918678</v>
       </c>
       <c r="T11">
-        <v>0.0237171424538681</v>
+        <v>0.0203442607918678</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,52 +1157,52 @@
         <v>24</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>29.6834392467706</v>
+        <v>29.79141</v>
       </c>
       <c r="H12">
-        <v>29.6834392467706</v>
+        <v>89.37423000000001</v>
       </c>
       <c r="I12">
-        <v>0.189232144279161</v>
+        <v>0.1816301007389473</v>
       </c>
       <c r="J12">
-        <v>0.189232144279161</v>
+        <v>0.1816301007389474</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>26.5908508520181</v>
+        <v>28.53112133333333</v>
       </c>
       <c r="N12">
-        <v>26.5908508520181</v>
+        <v>85.59336400000001</v>
       </c>
       <c r="O12">
-        <v>0.2133828542168707</v>
+        <v>0.2004230147958612</v>
       </c>
       <c r="P12">
-        <v>0.2133828542168707</v>
+        <v>0.2004230147958612</v>
       </c>
       <c r="Q12">
-        <v>789.3079057858175</v>
+        <v>849.9823334010802</v>
       </c>
       <c r="R12">
-        <v>789.3079057858175</v>
+        <v>7649.841000609722</v>
       </c>
       <c r="S12">
-        <v>0.04037889505586607</v>
+        <v>0.03640285236777581</v>
       </c>
       <c r="T12">
-        <v>0.04037889505586607</v>
+        <v>0.03640285236777581</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,52 +1219,52 @@
         <v>25</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>29.6834392467706</v>
+        <v>29.79141</v>
       </c>
       <c r="H13">
-        <v>29.6834392467706</v>
+        <v>89.37423000000001</v>
       </c>
       <c r="I13">
-        <v>0.189232144279161</v>
+        <v>0.1816301007389473</v>
       </c>
       <c r="J13">
-        <v>0.189232144279161</v>
+        <v>0.1816301007389474</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>27.9491093602959</v>
+        <v>32.85839333333333</v>
       </c>
       <c r="N13">
-        <v>27.9491093602959</v>
+        <v>98.57517999999999</v>
       </c>
       <c r="O13">
-        <v>0.2242824331311975</v>
+        <v>0.2308208701745229</v>
       </c>
       <c r="P13">
-        <v>0.2242824331311975</v>
+        <v>0.2308208701745229</v>
       </c>
       <c r="Q13">
-        <v>829.6256896976909</v>
+        <v>978.8978677346</v>
       </c>
       <c r="R13">
-        <v>829.6256896976909</v>
+        <v>8810.0808096114</v>
       </c>
       <c r="S13">
-        <v>0.04244144574556406</v>
+        <v>0.04192401790245008</v>
       </c>
       <c r="T13">
-        <v>0.04244144574556406</v>
+        <v>0.04192401790245007</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,52 +1281,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>29.6616182770752</v>
+        <v>33.094228</v>
       </c>
       <c r="H14">
-        <v>29.6616182770752</v>
+        <v>99.282684</v>
       </c>
       <c r="I14">
-        <v>0.1890930354363014</v>
+        <v>0.2017664811943339</v>
       </c>
       <c r="J14">
-        <v>0.1890930354363014</v>
+        <v>0.2017664811943339</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>36.7867647594208</v>
+        <v>45.13108133333333</v>
       </c>
       <c r="N14">
-        <v>36.7867647594208</v>
+        <v>135.393244</v>
       </c>
       <c r="O14">
-        <v>0.2952017182697281</v>
+        <v>0.3170330137447531</v>
       </c>
       <c r="P14">
-        <v>0.2952017182697281</v>
+        <v>0.317033013744753</v>
       </c>
       <c r="Q14">
-        <v>1091.154973942502</v>
+        <v>1493.578295531877</v>
       </c>
       <c r="R14">
-        <v>1091.154973942502</v>
+        <v>13442.2046597869</v>
       </c>
       <c r="S14">
-        <v>0.05582058897363476</v>
+        <v>0.06396663560571374</v>
       </c>
       <c r="T14">
-        <v>0.05582058897363476</v>
+        <v>0.06396663560571372</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,52 +1343,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>29.6616182770752</v>
+        <v>33.094228</v>
       </c>
       <c r="H15">
-        <v>29.6616182770752</v>
+        <v>99.282684</v>
       </c>
       <c r="I15">
-        <v>0.1890930354363014</v>
+        <v>0.2017664811943339</v>
       </c>
       <c r="J15">
-        <v>0.1890930354363014</v>
+        <v>0.2017664811943339</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>5.71373915320556</v>
+        <v>5.717455666666666</v>
       </c>
       <c r="N15">
-        <v>5.71373915320556</v>
+        <v>17.152367</v>
       </c>
       <c r="O15">
-        <v>0.04585088215291751</v>
+        <v>0.04016350035062346</v>
       </c>
       <c r="P15">
-        <v>0.04585088215291751</v>
+        <v>0.04016350035062346</v>
       </c>
       <c r="Q15">
-        <v>169.4787496971622</v>
+        <v>189.2147814125587</v>
       </c>
       <c r="R15">
-        <v>169.4787496971622</v>
+        <v>1702.933032713028</v>
       </c>
       <c r="S15">
-        <v>0.008670082483727313</v>
+        <v>0.008103648138192693</v>
       </c>
       <c r="T15">
-        <v>0.008670082483727313</v>
+        <v>0.008103648138192693</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,52 +1405,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>29.6616182770752</v>
+        <v>33.094228</v>
       </c>
       <c r="H16">
-        <v>29.6616182770752</v>
+        <v>99.282684</v>
       </c>
       <c r="I16">
-        <v>0.1890930354363014</v>
+        <v>0.2017664811943339</v>
       </c>
       <c r="J16">
-        <v>0.1890930354363014</v>
+        <v>0.2017664811943339</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>11.9566919690693</v>
+        <v>14.17143466666666</v>
       </c>
       <c r="N16">
-        <v>11.9566919690693</v>
+        <v>42.514304</v>
       </c>
       <c r="O16">
-        <v>0.09594853032535849</v>
+        <v>0.09955029901182223</v>
       </c>
       <c r="P16">
-        <v>0.09594853032535849</v>
+        <v>0.09955029901182223</v>
       </c>
       <c r="Q16">
-        <v>354.6548330431042</v>
+        <v>468.9926899457706</v>
       </c>
       <c r="R16">
-        <v>354.6548330431042</v>
+        <v>4220.934209511935</v>
       </c>
       <c r="S16">
-        <v>0.01814319884487406</v>
+        <v>0.02008591353345915</v>
       </c>
       <c r="T16">
-        <v>0.01814319884487406</v>
+        <v>0.02008591353345915</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,52 +1467,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>29.6616182770752</v>
+        <v>33.094228</v>
       </c>
       <c r="H17">
-        <v>29.6616182770752</v>
+        <v>99.282684</v>
       </c>
       <c r="I17">
-        <v>0.1890930354363014</v>
+        <v>0.2017664811943339</v>
       </c>
       <c r="J17">
-        <v>0.1890930354363014</v>
+        <v>0.2017664811943339</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>15.6185303425051</v>
+        <v>15.94503</v>
       </c>
       <c r="N17">
-        <v>15.6185303425051</v>
+        <v>47.83509</v>
       </c>
       <c r="O17">
-        <v>0.1253335819039277</v>
+        <v>0.1120093019224172</v>
       </c>
       <c r="P17">
-        <v>0.1253335819039277</v>
+        <v>0.1120093019224172</v>
       </c>
       <c r="Q17">
-        <v>463.2708850683028</v>
+        <v>527.68845828684</v>
       </c>
       <c r="R17">
-        <v>463.2708850683028</v>
+        <v>4749.19612458156</v>
       </c>
       <c r="S17">
-        <v>0.023699707444318</v>
+        <v>0.02259972270991986</v>
       </c>
       <c r="T17">
-        <v>0.023699707444318</v>
+        <v>0.02259972270991985</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1529,52 +1529,52 @@
         <v>24</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>29.6616182770752</v>
+        <v>33.094228</v>
       </c>
       <c r="H18">
-        <v>29.6616182770752</v>
+        <v>99.282684</v>
       </c>
       <c r="I18">
-        <v>0.1890930354363014</v>
+        <v>0.2017664811943339</v>
       </c>
       <c r="J18">
-        <v>0.1890930354363014</v>
+        <v>0.2017664811943339</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>26.5908508520181</v>
+        <v>28.53112133333333</v>
       </c>
       <c r="N18">
-        <v>26.5908508520181</v>
+        <v>85.59336400000001</v>
       </c>
       <c r="O18">
-        <v>0.2133828542168707</v>
+        <v>0.2004230147958612</v>
       </c>
       <c r="P18">
-        <v>0.2133828542168707</v>
+        <v>0.2004230147958612</v>
       </c>
       <c r="Q18">
-        <v>788.7276676352008</v>
+        <v>944.2154345009974</v>
       </c>
       <c r="R18">
-        <v>788.7276676352008</v>
+        <v>8497.938910508978</v>
       </c>
       <c r="S18">
-        <v>0.04034921161392988</v>
+        <v>0.04043864644572085</v>
       </c>
       <c r="T18">
-        <v>0.04034921161392988</v>
+        <v>0.04043864644572084</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1591,52 +1591,52 @@
         <v>25</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>29.6616182770752</v>
+        <v>33.094228</v>
       </c>
       <c r="H19">
-        <v>29.6616182770752</v>
+        <v>99.282684</v>
       </c>
       <c r="I19">
-        <v>0.1890930354363014</v>
+        <v>0.2017664811943339</v>
       </c>
       <c r="J19">
-        <v>0.1890930354363014</v>
+        <v>0.2017664811943339</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>27.9491093602959</v>
+        <v>32.85839333333333</v>
       </c>
       <c r="N19">
-        <v>27.9491093602959</v>
+        <v>98.57517999999999</v>
       </c>
       <c r="O19">
-        <v>0.2242824331311975</v>
+        <v>0.2308208701745229</v>
       </c>
       <c r="P19">
-        <v>0.2242824331311975</v>
+        <v>0.2308208701745229</v>
       </c>
       <c r="Q19">
-        <v>829.0158130293264</v>
+        <v>1087.423160687013</v>
       </c>
       <c r="R19">
-        <v>829.0158130293264</v>
+        <v>9786.808446183119</v>
       </c>
       <c r="S19">
-        <v>0.04241024607581744</v>
+        <v>0.04657191476132767</v>
       </c>
       <c r="T19">
-        <v>0.04241024607581744</v>
+        <v>0.04657191476132766</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1653,52 +1653,52 @@
         <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>36.5874850209747</v>
+        <v>37.33544666666666</v>
       </c>
       <c r="H20">
-        <v>36.5874850209747</v>
+        <v>112.00634</v>
       </c>
       <c r="I20">
-        <v>0.2332454870455744</v>
+        <v>0.2276240345522505</v>
       </c>
       <c r="J20">
-        <v>0.2332454870455744</v>
+        <v>0.2276240345522505</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>36.7867647594208</v>
+        <v>45.13108133333333</v>
       </c>
       <c r="N20">
-        <v>36.7867647594208</v>
+        <v>135.393244</v>
       </c>
       <c r="O20">
-        <v>0.2952017182697281</v>
+        <v>0.3170330137447531</v>
       </c>
       <c r="P20">
-        <v>0.2952017182697281</v>
+        <v>0.317033013744753</v>
       </c>
       <c r="Q20">
-        <v>1345.935204605428</v>
+        <v>1684.989080129662</v>
       </c>
       <c r="R20">
-        <v>1345.935204605428</v>
+        <v>15164.90172116696</v>
       </c>
       <c r="S20">
-        <v>0.06885446855451316</v>
+        <v>0.07216433367483978</v>
       </c>
       <c r="T20">
-        <v>0.06885446855451316</v>
+        <v>0.07216433367483978</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1715,52 +1715,52 @@
         <v>21</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>36.5874850209747</v>
+        <v>37.33544666666666</v>
       </c>
       <c r="H21">
-        <v>36.5874850209747</v>
+        <v>112.00634</v>
       </c>
       <c r="I21">
-        <v>0.2332454870455744</v>
+        <v>0.2276240345522505</v>
       </c>
       <c r="J21">
-        <v>0.2332454870455744</v>
+        <v>0.2276240345522505</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>5.71373915320556</v>
+        <v>5.717455666666666</v>
       </c>
       <c r="N21">
-        <v>5.71373915320556</v>
+        <v>17.152367</v>
       </c>
       <c r="O21">
-        <v>0.04585088215291751</v>
+        <v>0.04016350035062346</v>
       </c>
       <c r="P21">
-        <v>0.04585088215291751</v>
+        <v>0.04016350035062346</v>
       </c>
       <c r="Q21">
-        <v>209.0513456816651</v>
+        <v>213.4637611118644</v>
       </c>
       <c r="R21">
-        <v>209.0513456816651</v>
+        <v>1921.17385000678</v>
       </c>
       <c r="S21">
-        <v>0.01069451133922648</v>
+        <v>0.009142177991549639</v>
       </c>
       <c r="T21">
-        <v>0.01069451133922648</v>
+        <v>0.009142177991549641</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1777,52 +1777,52 @@
         <v>22</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>36.5874850209747</v>
+        <v>37.33544666666666</v>
       </c>
       <c r="H22">
-        <v>36.5874850209747</v>
+        <v>112.00634</v>
       </c>
       <c r="I22">
-        <v>0.2332454870455744</v>
+        <v>0.2276240345522505</v>
       </c>
       <c r="J22">
-        <v>0.2332454870455744</v>
+        <v>0.2276240345522505</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>11.9566919690693</v>
+        <v>14.17143466666666</v>
       </c>
       <c r="N22">
-        <v>11.9566919690693</v>
+        <v>42.514304</v>
       </c>
       <c r="O22">
-        <v>0.09594853032535849</v>
+        <v>0.09955029901182223</v>
       </c>
       <c r="P22">
-        <v>0.09594853032535849</v>
+        <v>0.09955029901182223</v>
       </c>
       <c r="Q22">
-        <v>437.4652883187315</v>
+        <v>529.0968431874843</v>
       </c>
       <c r="R22">
-        <v>437.4652883187315</v>
+        <v>4761.87158868736</v>
       </c>
       <c r="S22">
-        <v>0.02237956168704531</v>
+        <v>0.02266004070195389</v>
       </c>
       <c r="T22">
-        <v>0.02237956168704531</v>
+        <v>0.02266004070195389</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1839,52 +1839,52 @@
         <v>23</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>36.5874850209747</v>
+        <v>37.33544666666666</v>
       </c>
       <c r="H23">
-        <v>36.5874850209747</v>
+        <v>112.00634</v>
       </c>
       <c r="I23">
-        <v>0.2332454870455744</v>
+        <v>0.2276240345522505</v>
       </c>
       <c r="J23">
-        <v>0.2332454870455744</v>
+        <v>0.2276240345522505</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>15.6185303425051</v>
+        <v>15.94503</v>
       </c>
       <c r="N23">
-        <v>15.6185303425051</v>
+        <v>47.83509</v>
       </c>
       <c r="O23">
-        <v>0.1253335819039277</v>
+        <v>0.1120093019224172</v>
       </c>
       <c r="P23">
-        <v>0.1253335819039277</v>
+        <v>0.1120093019224172</v>
       </c>
       <c r="Q23">
-        <v>571.4427449560442</v>
+        <v>595.3148171634</v>
       </c>
       <c r="R23">
-        <v>571.4427449560442</v>
+        <v>5357.8333544706</v>
       </c>
       <c r="S23">
-        <v>0.02923349235434802</v>
+        <v>0.02549600921096175</v>
       </c>
       <c r="T23">
-        <v>0.02923349235434802</v>
+        <v>0.02549600921096174</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1901,52 +1901,52 @@
         <v>24</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>36.5874850209747</v>
+        <v>37.33544666666666</v>
       </c>
       <c r="H24">
-        <v>36.5874850209747</v>
+        <v>112.00634</v>
       </c>
       <c r="I24">
-        <v>0.2332454870455744</v>
+        <v>0.2276240345522505</v>
       </c>
       <c r="J24">
-        <v>0.2332454870455744</v>
+        <v>0.2276240345522505</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>26.5908508520181</v>
+        <v>28.53112133333333</v>
       </c>
       <c r="N24">
-        <v>26.5908508520181</v>
+        <v>85.59336400000001</v>
       </c>
       <c r="O24">
-        <v>0.2133828542168707</v>
+        <v>0.2004230147958612</v>
       </c>
       <c r="P24">
-        <v>0.2133828542168707</v>
+        <v>0.2004230147958612</v>
       </c>
       <c r="Q24">
-        <v>972.8923572431845</v>
+        <v>1065.222158880862</v>
       </c>
       <c r="R24">
-        <v>972.8923572431845</v>
+        <v>9586.999429927761</v>
       </c>
       <c r="S24">
-        <v>0.04977058775898881</v>
+        <v>0.04562109524495933</v>
       </c>
       <c r="T24">
-        <v>0.04977058775898881</v>
+        <v>0.04562109524495933</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1963,52 +1963,52 @@
         <v>25</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>36.5874850209747</v>
+        <v>37.33544666666666</v>
       </c>
       <c r="H25">
-        <v>36.5874850209747</v>
+        <v>112.00634</v>
       </c>
       <c r="I25">
-        <v>0.2332454870455744</v>
+        <v>0.2276240345522505</v>
       </c>
       <c r="J25">
-        <v>0.2332454870455744</v>
+        <v>0.2276240345522505</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>27.9491093602959</v>
+        <v>32.85839333333333</v>
       </c>
       <c r="N25">
-        <v>27.9491093602959</v>
+        <v>98.57517999999999</v>
       </c>
       <c r="O25">
-        <v>0.2242824331311975</v>
+        <v>0.2308208701745229</v>
       </c>
       <c r="P25">
-        <v>0.2242824331311975</v>
+        <v>0.2308208701745229</v>
       </c>
       <c r="Q25">
-        <v>1022.58762006941</v>
+        <v>1226.782791849022</v>
       </c>
       <c r="R25">
-        <v>1022.58762006941</v>
+        <v>11041.0451266412</v>
       </c>
       <c r="S25">
-        <v>0.05231286535145264</v>
+        <v>0.05254037772798613</v>
       </c>
       <c r="T25">
-        <v>0.05231286535145264</v>
+        <v>0.05254037772798612</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2025,52 +2025,52 @@
         <v>20</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>40.1590691026041</v>
+        <v>40.28908533333333</v>
       </c>
       <c r="H26">
-        <v>40.1590691026041</v>
+        <v>120.867256</v>
       </c>
       <c r="I26">
-        <v>0.2560143619263239</v>
+        <v>0.2456315638559363</v>
       </c>
       <c r="J26">
-        <v>0.2560143619263239</v>
+        <v>0.2456315638559363</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>36.7867647594208</v>
+        <v>45.13108133333333</v>
       </c>
       <c r="N26">
-        <v>36.7867647594208</v>
+        <v>135.393244</v>
       </c>
       <c r="O26">
-        <v>0.2952017182697281</v>
+        <v>0.3170330137447531</v>
       </c>
       <c r="P26">
-        <v>0.2952017182697281</v>
+        <v>0.317033013744753</v>
       </c>
       <c r="Q26">
-        <v>1477.322228034821</v>
+        <v>1818.289987024274</v>
       </c>
       <c r="R26">
-        <v>1477.322228034821</v>
+        <v>16364.60988321847</v>
       </c>
       <c r="S26">
-        <v>0.07557587954237888</v>
+        <v>0.07787331496008423</v>
       </c>
       <c r="T26">
-        <v>0.07557587954237888</v>
+        <v>0.07787331496008422</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2087,52 +2087,52 @@
         <v>21</v>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F27">
         <v>1</v>
       </c>
       <c r="G27">
-        <v>40.1590691026041</v>
+        <v>40.28908533333333</v>
       </c>
       <c r="H27">
-        <v>40.1590691026041</v>
+        <v>120.867256</v>
       </c>
       <c r="I27">
-        <v>0.2560143619263239</v>
+        <v>0.2456315638559363</v>
       </c>
       <c r="J27">
-        <v>0.2560143619263239</v>
+        <v>0.2456315638559363</v>
       </c>
       <c r="K27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L27">
         <v>1</v>
       </c>
       <c r="M27">
-        <v>5.71373915320556</v>
+        <v>5.717455666666666</v>
       </c>
       <c r="N27">
-        <v>5.71373915320556</v>
+        <v>17.152367</v>
       </c>
       <c r="O27">
-        <v>0.04585088215291751</v>
+        <v>0.04016350035062346</v>
       </c>
       <c r="P27">
-        <v>0.04585088215291751</v>
+        <v>0.04016350035062346</v>
       </c>
       <c r="Q27">
-        <v>229.4584454878367</v>
+        <v>230.3510592438835</v>
       </c>
       <c r="R27">
-        <v>229.4584454878367</v>
+        <v>2073.159533194952</v>
       </c>
       <c r="S27">
-        <v>0.01173848433813825</v>
+        <v>0.009865423401052084</v>
       </c>
       <c r="T27">
-        <v>0.01173848433813825</v>
+        <v>0.009865423401052084</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2149,52 +2149,52 @@
         <v>22</v>
       </c>
       <c r="E28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F28">
         <v>1</v>
       </c>
       <c r="G28">
-        <v>40.1590691026041</v>
+        <v>40.28908533333333</v>
       </c>
       <c r="H28">
-        <v>40.1590691026041</v>
+        <v>120.867256</v>
       </c>
       <c r="I28">
-        <v>0.2560143619263239</v>
+        <v>0.2456315638559363</v>
       </c>
       <c r="J28">
-        <v>0.2560143619263239</v>
+        <v>0.2456315638559363</v>
       </c>
       <c r="K28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L28">
         <v>1</v>
       </c>
       <c r="M28">
-        <v>11.9566919690693</v>
+        <v>14.17143466666666</v>
       </c>
       <c r="N28">
-        <v>11.9566919690693</v>
+        <v>42.514304</v>
       </c>
       <c r="O28">
-        <v>0.09594853032535849</v>
+        <v>0.09955029901182223</v>
       </c>
       <c r="P28">
-        <v>0.09594853032535849</v>
+        <v>0.09955029901182223</v>
       </c>
       <c r="Q28">
-        <v>480.1696190244055</v>
+        <v>570.9541405810915</v>
       </c>
       <c r="R28">
-        <v>480.1696190244055</v>
+        <v>5138.587265229823</v>
       </c>
       <c r="S28">
-        <v>0.0245642017690152</v>
+        <v>0.02445269562859996</v>
       </c>
       <c r="T28">
-        <v>0.0245642017690152</v>
+        <v>0.02445269562859996</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2211,52 +2211,52 @@
         <v>23</v>
       </c>
       <c r="E29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F29">
         <v>1</v>
       </c>
       <c r="G29">
-        <v>40.1590691026041</v>
+        <v>40.28908533333333</v>
       </c>
       <c r="H29">
-        <v>40.1590691026041</v>
+        <v>120.867256</v>
       </c>
       <c r="I29">
-        <v>0.2560143619263239</v>
+        <v>0.2456315638559363</v>
       </c>
       <c r="J29">
-        <v>0.2560143619263239</v>
+        <v>0.2456315638559363</v>
       </c>
       <c r="K29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L29">
         <v>1</v>
       </c>
       <c r="M29">
-        <v>15.6185303425051</v>
+        <v>15.94503</v>
       </c>
       <c r="N29">
-        <v>15.6185303425051</v>
+        <v>47.83509</v>
       </c>
       <c r="O29">
-        <v>0.1253335819039277</v>
+        <v>0.1120093019224172</v>
       </c>
       <c r="P29">
-        <v>0.1253335819039277</v>
+        <v>0.1120093019224172</v>
       </c>
       <c r="Q29">
-        <v>627.2256393057812</v>
+        <v>642.41067431256</v>
       </c>
       <c r="R29">
-        <v>627.2256393057812</v>
+        <v>5781.69606881304</v>
       </c>
       <c r="S29">
-        <v>0.03208719699907472</v>
+        <v>0.02751301999761506</v>
       </c>
       <c r="T29">
-        <v>0.03208719699907472</v>
+        <v>0.02751301999761506</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2273,52 +2273,52 @@
         <v>24</v>
       </c>
       <c r="E30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F30">
         <v>1</v>
       </c>
       <c r="G30">
-        <v>40.1590691026041</v>
+        <v>40.28908533333333</v>
       </c>
       <c r="H30">
-        <v>40.1590691026041</v>
+        <v>120.867256</v>
       </c>
       <c r="I30">
-        <v>0.2560143619263239</v>
+        <v>0.2456315638559363</v>
       </c>
       <c r="J30">
-        <v>0.2560143619263239</v>
+        <v>0.2456315638559363</v>
       </c>
       <c r="K30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L30">
         <v>1</v>
       </c>
       <c r="M30">
-        <v>26.5908508520181</v>
+        <v>28.53112133333333</v>
       </c>
       <c r="N30">
-        <v>26.5908508520181</v>
+        <v>85.59336400000001</v>
       </c>
       <c r="O30">
-        <v>0.2133828542168707</v>
+        <v>0.2004230147958612</v>
       </c>
       <c r="P30">
-        <v>0.2133828542168707</v>
+        <v>0.2004230147958612</v>
       </c>
       <c r="Q30">
-        <v>1067.863816863234</v>
+        <v>1149.492782054354</v>
       </c>
       <c r="R30">
-        <v>1067.863816863234</v>
+        <v>10345.43503848918</v>
       </c>
       <c r="S30">
-        <v>0.05462907526834996</v>
+        <v>0.04923021855702885</v>
       </c>
       <c r="T30">
-        <v>0.05462907526834996</v>
+        <v>0.04923021855702885</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2335,52 +2335,52 @@
         <v>25</v>
       </c>
       <c r="E31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F31">
         <v>1</v>
       </c>
       <c r="G31">
-        <v>40.1590691026041</v>
+        <v>40.28908533333333</v>
       </c>
       <c r="H31">
-        <v>40.1590691026041</v>
+        <v>120.867256</v>
       </c>
       <c r="I31">
-        <v>0.2560143619263239</v>
+        <v>0.2456315638559363</v>
       </c>
       <c r="J31">
-        <v>0.2560143619263239</v>
+        <v>0.2456315638559363</v>
       </c>
       <c r="K31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L31">
         <v>1</v>
       </c>
       <c r="M31">
-        <v>27.9491093602959</v>
+        <v>32.85839333333333</v>
       </c>
       <c r="N31">
-        <v>27.9491093602959</v>
+        <v>98.57517999999999</v>
       </c>
       <c r="O31">
-        <v>0.2242824331311975</v>
+        <v>0.2308208701745229</v>
       </c>
       <c r="P31">
-        <v>0.2242824331311975</v>
+        <v>0.2308208701745229</v>
       </c>
       <c r="Q31">
-        <v>1122.410214156362</v>
+        <v>1323.834612922898</v>
       </c>
       <c r="R31">
-        <v>1122.410214156362</v>
+        <v>11914.51151630608</v>
       </c>
       <c r="S31">
-        <v>0.05741952400936695</v>
+        <v>0.0566968913115561</v>
       </c>
       <c r="T31">
-        <v>0.05741952400936695</v>
+        <v>0.05669689131155609</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2397,52 +2397,52 @@
         <v>20</v>
       </c>
       <c r="E32">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F32">
         <v>1</v>
       </c>
       <c r="G32">
-        <v>12.8692659796151</v>
+        <v>13.83640933333333</v>
       </c>
       <c r="H32">
-        <v>12.8692659796151</v>
+        <v>41.509228</v>
       </c>
       <c r="I32">
-        <v>0.08204166560269355</v>
+        <v>0.0843568136277754</v>
       </c>
       <c r="J32">
-        <v>0.08204166560269355</v>
+        <v>0.0843568136277754</v>
       </c>
       <c r="K32">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L32">
         <v>1</v>
       </c>
       <c r="M32">
-        <v>36.7867647594208</v>
+        <v>45.13108133333333</v>
       </c>
       <c r="N32">
-        <v>36.7867647594208</v>
+        <v>135.393244</v>
       </c>
       <c r="O32">
-        <v>0.2952017182697281</v>
+        <v>0.3170330137447531</v>
       </c>
       <c r="P32">
-        <v>0.2952017182697281</v>
+        <v>0.317033013744753</v>
       </c>
       <c r="Q32">
-        <v>473.4186602185177</v>
+        <v>624.4521149839592</v>
       </c>
       <c r="R32">
-        <v>473.4186602185177</v>
+        <v>5620.069034855633</v>
       </c>
       <c r="S32">
-        <v>0.02421884065562558</v>
+        <v>0.02674389485431809</v>
       </c>
       <c r="T32">
-        <v>0.02421884065562558</v>
+        <v>0.02674389485431809</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2459,52 +2459,52 @@
         <v>21</v>
       </c>
       <c r="E33">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F33">
         <v>1</v>
       </c>
       <c r="G33">
-        <v>12.8692659796151</v>
+        <v>13.83640933333333</v>
       </c>
       <c r="H33">
-        <v>12.8692659796151</v>
+        <v>41.509228</v>
       </c>
       <c r="I33">
-        <v>0.08204166560269355</v>
+        <v>0.0843568136277754</v>
       </c>
       <c r="J33">
-        <v>0.08204166560269355</v>
+        <v>0.0843568136277754</v>
       </c>
       <c r="K33">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L33">
         <v>1</v>
       </c>
       <c r="M33">
-        <v>5.71373915320556</v>
+        <v>5.717455666666666</v>
       </c>
       <c r="N33">
-        <v>5.71373915320556</v>
+        <v>17.152367</v>
       </c>
       <c r="O33">
-        <v>0.04585088215291751</v>
+        <v>0.04016350035062346</v>
       </c>
       <c r="P33">
-        <v>0.04585088215291751</v>
+        <v>0.04016350035062346</v>
       </c>
       <c r="Q33">
-        <v>73.5316289007431</v>
+        <v>79.10905694918621</v>
       </c>
       <c r="R33">
-        <v>73.5316289007431</v>
+        <v>711.9815125426759</v>
       </c>
       <c r="S33">
-        <v>0.003761682741178168</v>
+        <v>0.003388064913716635</v>
       </c>
       <c r="T33">
-        <v>0.003761682741178168</v>
+        <v>0.003388064913716635</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2521,52 +2521,52 @@
         <v>22</v>
       </c>
       <c r="E34">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F34">
         <v>1</v>
       </c>
       <c r="G34">
-        <v>12.8692659796151</v>
+        <v>13.83640933333333</v>
       </c>
       <c r="H34">
-        <v>12.8692659796151</v>
+        <v>41.509228</v>
       </c>
       <c r="I34">
-        <v>0.08204166560269355</v>
+        <v>0.0843568136277754</v>
       </c>
       <c r="J34">
-        <v>0.08204166560269355</v>
+        <v>0.0843568136277754</v>
       </c>
       <c r="K34">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L34">
         <v>1</v>
       </c>
       <c r="M34">
-        <v>11.9566919690693</v>
+        <v>14.17143466666666</v>
       </c>
       <c r="N34">
-        <v>11.9566919690693</v>
+        <v>42.514304</v>
       </c>
       <c r="O34">
-        <v>0.09594853032535849</v>
+        <v>0.09955029901182223</v>
       </c>
       <c r="P34">
-        <v>0.09594853032535849</v>
+        <v>0.09955029901182223</v>
       </c>
       <c r="Q34">
-        <v>153.8738491862806</v>
+        <v>196.0817708885902</v>
       </c>
       <c r="R34">
-        <v>153.8738491862806</v>
+        <v>1764.735937997312</v>
       </c>
       <c r="S34">
-        <v>0.007871777240022963</v>
+        <v>0.008397746020329602</v>
       </c>
       <c r="T34">
-        <v>0.007871777240022963</v>
+        <v>0.008397746020329602</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2583,52 +2583,52 @@
         <v>23</v>
       </c>
       <c r="E35">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F35">
         <v>1</v>
       </c>
       <c r="G35">
-        <v>12.8692659796151</v>
+        <v>13.83640933333333</v>
       </c>
       <c r="H35">
-        <v>12.8692659796151</v>
+        <v>41.509228</v>
       </c>
       <c r="I35">
-        <v>0.08204166560269355</v>
+        <v>0.0843568136277754</v>
       </c>
       <c r="J35">
-        <v>0.08204166560269355</v>
+        <v>0.0843568136277754</v>
       </c>
       <c r="K35">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L35">
         <v>1</v>
       </c>
       <c r="M35">
-        <v>15.6185303425051</v>
+        <v>15.94503</v>
       </c>
       <c r="N35">
-        <v>15.6185303425051</v>
+        <v>47.83509</v>
       </c>
       <c r="O35">
-        <v>0.1253335819039277</v>
+        <v>0.1120093019224172</v>
       </c>
       <c r="P35">
-        <v>0.1253335819039277</v>
+        <v>0.1120093019224172</v>
       </c>
       <c r="Q35">
-        <v>200.9990211883871</v>
+        <v>220.62196191228</v>
       </c>
       <c r="R35">
-        <v>200.9990211883871</v>
+        <v>1985.59765721052</v>
       </c>
       <c r="S35">
-        <v>0.01028257581534984</v>
+        <v>0.009448747806846573</v>
       </c>
       <c r="T35">
-        <v>0.01028257581534984</v>
+        <v>0.009448747806846569</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2645,52 +2645,52 @@
         <v>24</v>
       </c>
       <c r="E36">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F36">
         <v>1</v>
       </c>
       <c r="G36">
-        <v>12.8692659796151</v>
+        <v>13.83640933333333</v>
       </c>
       <c r="H36">
-        <v>12.8692659796151</v>
+        <v>41.509228</v>
       </c>
       <c r="I36">
-        <v>0.08204166560269355</v>
+        <v>0.0843568136277754</v>
       </c>
       <c r="J36">
-        <v>0.08204166560269355</v>
+        <v>0.0843568136277754</v>
       </c>
       <c r="K36">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L36">
         <v>1</v>
       </c>
       <c r="M36">
-        <v>26.5908508520181</v>
+        <v>28.53112133333333</v>
       </c>
       <c r="N36">
-        <v>26.5908508520181</v>
+        <v>85.59336400000001</v>
       </c>
       <c r="O36">
-        <v>0.2133828542168707</v>
+        <v>0.2004230147958612</v>
       </c>
       <c r="P36">
-        <v>0.2133828542168707</v>
+        <v>0.2004230147958612</v>
       </c>
       <c r="Q36">
-        <v>342.2047322388958</v>
+        <v>394.7682735069992</v>
       </c>
       <c r="R36">
-        <v>342.2047322388958</v>
+        <v>3552.914461562993</v>
       </c>
       <c r="S36">
-        <v>0.01750628477100882</v>
+        <v>0.01690704690585134</v>
       </c>
       <c r="T36">
-        <v>0.01750628477100882</v>
+        <v>0.01690704690585134</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2707,52 +2707,52 @@
         <v>25</v>
       </c>
       <c r="E37">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F37">
         <v>1</v>
       </c>
       <c r="G37">
-        <v>12.8692659796151</v>
+        <v>13.83640933333333</v>
       </c>
       <c r="H37">
-        <v>12.8692659796151</v>
+        <v>41.509228</v>
       </c>
       <c r="I37">
-        <v>0.08204166560269355</v>
+        <v>0.0843568136277754</v>
       </c>
       <c r="J37">
-        <v>0.08204166560269355</v>
+        <v>0.0843568136277754</v>
       </c>
       <c r="K37">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L37">
         <v>1</v>
       </c>
       <c r="M37">
-        <v>27.9491093602959</v>
+        <v>32.85839333333333</v>
       </c>
       <c r="N37">
-        <v>27.9491093602959</v>
+        <v>98.57517999999999</v>
       </c>
       <c r="O37">
-        <v>0.2242824331311975</v>
+        <v>0.2308208701745229</v>
       </c>
       <c r="P37">
-        <v>0.2242824331311975</v>
+        <v>0.2308208701745229</v>
       </c>
       <c r="Q37">
-        <v>359.684522250998</v>
+        <v>454.6421801956711</v>
       </c>
       <c r="R37">
-        <v>359.684522250998</v>
+        <v>4091.779621761039</v>
       </c>
       <c r="S37">
-        <v>0.01840050437950818</v>
+        <v>0.01947131312671317</v>
       </c>
       <c r="T37">
-        <v>0.01840050437950818</v>
+        <v>0.01947131312671317</v>
       </c>
     </row>
   </sheetData>
